--- a/Income/JCI_inc.xlsx
+++ b/Income/JCI_inc.xlsx
@@ -2205,10 +2205,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.3365</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.3321</v>
@@ -2334,10 +2332,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.0647</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.0513</v>
@@ -2463,10 +2459,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.0646</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.0489</v>
@@ -2592,10 +2586,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>0.0474</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.0418</v>
@@ -2721,10 +2713,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>0.1172</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.0968</v>
@@ -2850,10 +2840,8 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>2852000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2617000000.0</v>
@@ -3374,10 +3362,8 @@
           <t>EPS (Basic, Consolidated)</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B25" s="0" t="n">
+        <v>1.7373</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1.4964</v>
@@ -3644,10 +3630,8 @@
           <t>EPS (Basic, from Continuous Ops)</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>1.28</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1.08</v>
@@ -4170,10 +4154,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.1185</v>
@@ -4299,10 +4281,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B32" s="0" t="n">
+        <v>0.1299</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0.108</v>
